--- a/Crédito disponível - Centralização - Campus Socorro.xlsx
+++ b/Crédito disponível - Centralização - Campus Socorro.xlsx
@@ -545,7 +545,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="12">
-        <v>0</v>
+        <v>150877.45</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -607,7 +607,7 @@
         <v>3673.1</v>
       </c>
       <c r="O10" s="13">
-        <v>2272.66</v>
+        <v>3673.1</v>
       </c>
     </row>
     <row r="11">
@@ -633,10 +633,10 @@
         <v>643060.65</v>
       </c>
       <c r="N11" s="12">
-        <v>313176.5</v>
+        <v>346821.67</v>
       </c>
       <c r="O11" s="13">
-        <v>262345.79</v>
+        <v>311142.72</v>
       </c>
     </row>
     <row r="12">
@@ -659,13 +659,13 @@
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12">
-        <v>119536.46</v>
+        <v>134700.35</v>
       </c>
       <c r="N12" s="12">
+        <v>45523.6</v>
+      </c>
+      <c r="O12" s="13">
         <v>44806.1</v>
-      </c>
-      <c r="O12" s="13">
-        <v>37845.15</v>
       </c>
     </row>
     <row r="13">
@@ -694,7 +694,7 @@
         <v>12273.32</v>
       </c>
       <c r="O13" s="13">
-        <v>10833.98</v>
+        <v>12273.32</v>
       </c>
     </row>
     <row r="14">
@@ -723,7 +723,7 @@
         <v>4692.86</v>
       </c>
       <c r="O14" s="13">
-        <v>4331.18</v>
+        <v>4692.86</v>
       </c>
     </row>
     <row r="15">
@@ -812,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="12">
-        <v>112101.79</v>
+        <v>98788.74</v>
       </c>
       <c r="L17" s="12">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>3256.05</v>
       </c>
       <c r="N19" s="12">
-        <v>1269.45</v>
+        <v>3256.05</v>
       </c>
       <c r="O19" s="13">
         <v>1269.45</v>
@@ -914,7 +914,7 @@
         <v>29</v>
       </c>
       <c r="K21" s="12">
-        <v>209</v>
+        <v>576.82</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12">
@@ -1038,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="12">
-        <v>67921</v>
+        <v>26481</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -1065,13 +1065,13 @@
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12">
-        <v>84790</v>
+        <v>126230</v>
       </c>
       <c r="N26" s="12">
-        <v>31270</v>
+        <v>44820</v>
       </c>
       <c r="O26" s="13">
-        <v>26720</v>
+        <v>42690</v>
       </c>
     </row>
     <row r="27">

--- a/Crédito disponível - Centralização - Campus Socorro.xlsx
+++ b/Crédito disponível - Centralização - Campus Socorro.xlsx
@@ -545,7 +545,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="12">
-        <v>150877.45</v>
+        <v>0</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -601,7 +601,7 @@
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12">
-        <v>8231.67</v>
+        <v>10631.67</v>
       </c>
       <c r="N10" s="12">
         <v>3673.1</v>
@@ -630,13 +630,13 @@
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
-        <v>643060.65</v>
+        <v>790500.47</v>
       </c>
       <c r="N11" s="12">
         <v>346821.67</v>
       </c>
       <c r="O11" s="13">
-        <v>311142.72</v>
+        <v>333891.59</v>
       </c>
     </row>
     <row r="12">
@@ -659,13 +659,13 @@
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12">
-        <v>134700.35</v>
+        <v>135737.98</v>
       </c>
       <c r="N12" s="12">
         <v>45523.6</v>
       </c>
       <c r="O12" s="13">
-        <v>44806.1</v>
+        <v>45523.6</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>44820</v>
       </c>
       <c r="O26" s="13">
-        <v>42690</v>
+        <v>43190</v>
       </c>
     </row>
     <row r="27">

--- a/Crédito disponível - Centralização - Campus Socorro.xlsx
+++ b/Crédito disponível - Centralização - Campus Socorro.xlsx
@@ -597,17 +597,17 @@
         <v>25</v>
       </c>
       <c r="K10" s="12">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12">
-        <v>10631.67</v>
+        <v>6631.67</v>
       </c>
       <c r="N10" s="12">
-        <v>3673.1</v>
+        <v>5164.03</v>
       </c>
       <c r="O10" s="13">
-        <v>3673.1</v>
+        <v>4236.55</v>
       </c>
     </row>
     <row r="11">
@@ -626,17 +626,17 @@
         <v>27</v>
       </c>
       <c r="K11" s="12">
-        <v>0</v>
+        <v>14482.07</v>
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
-        <v>790500.47</v>
+        <v>827429.11</v>
       </c>
       <c r="N11" s="12">
-        <v>346821.67</v>
+        <v>479988.61</v>
       </c>
       <c r="O11" s="13">
-        <v>333891.59</v>
+        <v>428252.01</v>
       </c>
     </row>
     <row r="12">
@@ -659,13 +659,13 @@
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12">
-        <v>135737.98</v>
+        <v>137737.98</v>
       </c>
       <c r="N12" s="12">
-        <v>45523.6</v>
+        <v>58380.77</v>
       </c>
       <c r="O12" s="13">
-        <v>45523.6</v>
+        <v>55897.04</v>
       </c>
     </row>
     <row r="13">
@@ -684,17 +684,17 @@
         <v>31</v>
       </c>
       <c r="K13" s="12">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="12">
-        <v>21662.16</v>
+        <v>21272.16</v>
       </c>
       <c r="N13" s="12">
-        <v>12273.32</v>
+        <v>15074.72</v>
       </c>
       <c r="O13" s="13">
-        <v>12273.32</v>
+        <v>13323.32</v>
       </c>
     </row>
     <row r="14">
@@ -720,10 +720,10 @@
         <v>7259.1</v>
       </c>
       <c r="N14" s="12">
-        <v>4692.86</v>
+        <v>5416.22</v>
       </c>
       <c r="O14" s="13">
-        <v>4692.86</v>
+        <v>5416.22</v>
       </c>
     </row>
     <row r="15">
@@ -812,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="12">
-        <v>98788.74</v>
+        <v>39136.81</v>
       </c>
       <c r="L17" s="12">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>3256.05</v>
       </c>
       <c r="O19" s="13">
-        <v>1269.45</v>
+        <v>3256.05</v>
       </c>
     </row>
     <row r="20">
@@ -914,11 +914,11 @@
         <v>29</v>
       </c>
       <c r="K21" s="12">
-        <v>576.82</v>
+        <v>1394.92</v>
       </c>
       <c r="L21" s="12"/>
       <c r="M21" s="12">
-        <v>1114.25</v>
+        <v>2297.25</v>
       </c>
       <c r="N21" s="12">
         <v>980</v>
@@ -943,10 +943,12 @@
         <v>31</v>
       </c>
       <c r="K22" s="12">
-        <v>0</v>
+        <v>1396.67</v>
       </c>
       <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="M22" s="12">
+        <v>1933.45</v>
+      </c>
       <c r="N22" s="12"/>
       <c r="O22" s="13"/>
     </row>
@@ -1068,10 +1070,10 @@
         <v>126230</v>
       </c>
       <c r="N26" s="12">
-        <v>44820</v>
+        <v>70210</v>
       </c>
       <c r="O26" s="13">
-        <v>43190</v>
+        <v>69770</v>
       </c>
     </row>
     <row r="27">

--- a/Crédito disponível - Centralização - Campus Socorro.xlsx
+++ b/Crédito disponível - Centralização - Campus Socorro.xlsx
@@ -633,10 +633,10 @@
         <v>827429.11</v>
       </c>
       <c r="N11" s="12">
-        <v>479988.61</v>
+        <v>488476.82</v>
       </c>
       <c r="O11" s="13">
-        <v>428252.01</v>
+        <v>462793.92</v>
       </c>
     </row>
     <row r="12">
@@ -694,7 +694,7 @@
         <v>15074.72</v>
       </c>
       <c r="O13" s="13">
-        <v>13323.32</v>
+        <v>13488.83</v>
       </c>
     </row>
     <row r="14">
@@ -812,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="12">
-        <v>39136.81</v>
+        <v>38733.48</v>
       </c>
       <c r="L17" s="12">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>31</v>
       </c>
       <c r="K22" s="12">
-        <v>1396.67</v>
+        <v>1800</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="12">
@@ -976,7 +976,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="12">
-        <v>28057.41</v>
+        <v>22884.17</v>
       </c>
       <c r="L23" s="12">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="12">
-        <v>26481</v>
+        <v>26301</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12">
-        <v>126230</v>
+        <v>126410</v>
       </c>
       <c r="N26" s="12">
         <v>70210</v>

--- a/Crédito disponível - Centralização - Campus Socorro.xlsx
+++ b/Crédito disponível - Centralização - Campus Socorro.xlsx
@@ -630,13 +630,13 @@
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
-        <v>827429.11</v>
+        <v>828598.39</v>
       </c>
       <c r="N11" s="12">
         <v>488476.82</v>
       </c>
       <c r="O11" s="13">
-        <v>462793.92</v>
+        <v>468005.34</v>
       </c>
     </row>
     <row r="12">
@@ -665,7 +665,7 @@
         <v>58380.77</v>
       </c>
       <c r="O12" s="13">
-        <v>55897.04</v>
+        <v>56820.53</v>
       </c>
     </row>
     <row r="13">
@@ -694,7 +694,7 @@
         <v>15074.72</v>
       </c>
       <c r="O13" s="13">
-        <v>13488.83</v>
+        <v>15074.72</v>
       </c>
     </row>
     <row r="14">
@@ -812,7 +812,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="12">
-        <v>38733.48</v>
+        <v>37564.2</v>
       </c>
       <c r="L17" s="12">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="K25" s="12">
-        <v>26301</v>
+        <v>12801</v>
       </c>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
@@ -1067,13 +1067,13 @@
       </c>
       <c r="L26" s="12"/>
       <c r="M26" s="12">
-        <v>126410</v>
+        <v>139910</v>
       </c>
       <c r="N26" s="12">
-        <v>70210</v>
+        <v>70330</v>
       </c>
       <c r="O26" s="13">
-        <v>69770</v>
+        <v>69890</v>
       </c>
     </row>
     <row r="27">
